--- a/data/Dates.xlsx
+++ b/data/Dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1C8EC253-3908-4A2D-B2E7-DA7B17845DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06AE0C96-7256-4C62-A258-80C7319A6977}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{1C8EC253-3908-4A2D-B2E7-DA7B17845DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C901FB7-2E88-4D38-B151-C19CEA7939F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{C07421EF-8426-4B5E-982F-B70E957986E3}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{C07421EF-8426-4B5E-982F-B70E957986E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08E6ABC-F89F-42DA-8DA6-CFEBB6F395F2}">
-  <dimension ref="A1:A2468"/>
+  <dimension ref="A1:A2469"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2437" workbookViewId="0">
-      <selection activeCell="A2468" sqref="A2468"/>
+      <selection activeCell="B2462" sqref="B2462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12795,6 +12795,11 @@
         <v>45790</v>
       </c>
     </row>
+    <row r="2469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2469" s="1">
+        <v>45791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Dates.xlsx
+++ b/data/Dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1C8EC253-3908-4A2D-B2E7-DA7B17845DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C901FB7-2E88-4D38-B151-C19CEA7939F3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1C8EC253-3908-4A2D-B2E7-DA7B17845DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6314CC5E-14FF-4CDE-981E-A7A85B147A43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="38640" windowHeight="15840" xr2:uid="{C07421EF-8426-4B5E-982F-B70E957986E3}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08E6ABC-F89F-42DA-8DA6-CFEBB6F395F2}">
-  <dimension ref="A1:A2469"/>
+  <dimension ref="A1:A2470"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2437" workbookViewId="0">
-      <selection activeCell="B2462" sqref="B2462"/>
+      <selection activeCell="C2467" sqref="C2467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12800,6 +12800,11 @@
         <v>45791</v>
       </c>
     </row>
+    <row r="2470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2470" s="1">
+        <v>45792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
